--- a/Bảng-kế-hoạch-verWeb.xlsx
+++ b/Bảng-kế-hoạch-verWeb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="9875"/>
+    <workbookView windowWidth="23040" windowHeight="9275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
   <si>
     <t>KẾ HOẠCH THỰC HIỆN ĐỒ ÁN 1 - 2019</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>23/10/2019</t>
-  </si>
-  <si>
-    <t>Tìm hiểu cách liên kế giữa front-end và back-end bằng API</t>
   </si>
   <si>
     <t>Cách thức hoạt động của bên trung gian để kết nối front-end và back-end</t>
@@ -253,11 +250,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dd\/mm\/yyyy"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="dd\/mm\/yyyy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -311,15 +308,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,9 +353,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,6 +365,37 @@
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,30 +424,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -427,14 +432,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,7 +445,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -470,7 +467,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,13 +545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +563,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,121 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,13 +635,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,6 +658,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -684,6 +692,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,26 +735,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -764,67 +761,67 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -833,92 +830,92 @@
     <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -927,7 +924,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -936,10 +933,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -954,11 +951,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,7 +963,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1236,8 +1233,8 @@
   </sheetPr>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1"/>
@@ -1541,11 +1538,9 @@
       <c r="W9" s="5"/>
     </row>
     <row r="10" ht="16.8" spans="1:23">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>13</v>
@@ -1583,20 +1578,20 @@
     </row>
     <row r="11" ht="16.8" spans="1:23">
       <c r="A11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -1618,20 +1613,20 @@
     </row>
     <row r="12" ht="16.8" spans="1:23">
       <c r="A12" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1653,20 +1648,20 @@
     </row>
     <row r="13" ht="16.8" spans="1:23">
       <c r="A13" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -1688,17 +1683,17 @@
     </row>
     <row r="14" ht="16.8" spans="1:23">
       <c r="A14" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="7">
         <v>43535</v>
@@ -1798,20 +1793,20 @@
     </row>
     <row r="18" ht="16.8" spans="1:23">
       <c r="A18" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -1833,10 +1828,10 @@
     </row>
     <row r="19" ht="16.8" spans="1:23">
       <c r="A19" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>13</v>
@@ -1874,10 +1869,10 @@
     </row>
     <row r="20" ht="16.8" spans="1:23">
       <c r="A20" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>13</v>
@@ -1913,10 +1908,10 @@
     </row>
     <row r="21" ht="16.8" spans="1:23">
       <c r="A21" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>13</v>
@@ -1952,10 +1947,10 @@
     </row>
     <row r="22" ht="16.8" spans="1:23">
       <c r="A22" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>13</v>
@@ -1991,10 +1986,10 @@
     </row>
     <row r="23" ht="16.8" spans="1:23">
       <c r="A23" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>13</v>
@@ -2030,10 +2025,10 @@
     </row>
     <row r="24" ht="16.8" spans="1:23">
       <c r="A24" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>13</v>
@@ -2049,7 +2044,7 @@
         <v>43755</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -2069,7 +2064,7 @@
     </row>
     <row r="25" customHeight="1" spans="1:8">
       <c r="A25" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="6" t="s">
@@ -2082,18 +2077,18 @@
         <v>43760</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H25" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" ht="16.8" spans="1:23">
+      <c r="A26" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" ht="16.8" spans="1:23">
-      <c r="A26" s="8" t="s">
+      <c r="B26" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>13</v>
@@ -2129,7 +2124,7 @@
     </row>
     <row r="27" ht="17.4" spans="1:23">
       <c r="A27" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="6"/>
@@ -2156,7 +2151,7 @@
     </row>
     <row r="28" ht="17.4" spans="1:23">
       <c r="A28" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>13</v>
@@ -2190,10 +2185,10 @@
     </row>
     <row r="29" ht="17.4" spans="1:23">
       <c r="A29" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>13</v>
@@ -2229,10 +2224,10 @@
     </row>
     <row r="30" ht="17.4" spans="1:23">
       <c r="A30" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>13</v>
@@ -2262,10 +2257,10 @@
     </row>
     <row r="31" ht="17.4" spans="1:23">
       <c r="A31" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>13</v>
@@ -2297,10 +2292,10 @@
     </row>
     <row r="32" ht="17.4" spans="1:23">
       <c r="A32" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>13</v>
@@ -2332,10 +2327,10 @@
     </row>
     <row r="33" ht="17.4" spans="1:23">
       <c r="A33" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>13</v>
@@ -2366,10 +2361,10 @@
     </row>
     <row r="34" ht="17.4" spans="1:23">
       <c r="A34" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>13</v>
@@ -2403,10 +2398,10 @@
     </row>
     <row r="35" ht="17.4" spans="1:23">
       <c r="A35" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6" t="s">
@@ -2438,7 +2433,7 @@
     </row>
     <row r="36" ht="17.4" spans="1:23">
       <c r="A36" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="6"/>
